--- a/case/case.xlsx
+++ b/case/case.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11880"/>
+    <workbookView windowHeight="20020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user_info" sheetId="1" r:id="rId1"/>
+    <sheet name="sale_info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>caseId</t>
   </si>
@@ -92,6 +93,106 @@
   </si>
   <si>
     <t>{"username":"111117"}</t>
+  </si>
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>sale_info</t>
+  </si>
+  <si>
+    <t>校验状态码=200</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/aries-server/api/sale/sale-info</t>
+  </si>
+  <si>
+    <t>saleId=151&amp;_productId=241&amp;_appId=1901</t>
+  </si>
+  <si>
+    <t>{
+ "code": 200,
+ "data": null,
+ "msg": ""
+}</t>
+  </si>
+  <si>
+    <t>saleId为空</t>
+  </si>
+  <si>
+    <t>saleId=151&amp;_productId=241&amp;_appId=1902</t>
+  </si>
+  <si>
+    <t>开始时间小于当前时间</t>
+  </si>
+  <si>
+    <t>saleId=151&amp;_productId=241&amp;_appId=1903</t>
+  </si>
+  <si>
+    <t>{
+ "code": 200,
+ "data": {
+  "endTime": 1630400380000,
+  "startTime": 1627376380000,
+  "status": 1,
+  "type": 0,
+  "url": "https://aries.yuanfudao.biz/h5/solar-web-ai-course/purchase-bolt.html?saleId=151"
+ },
+ "msg": ""
+}</t>
+  </si>
+  <si>
+    <t>结束时间大于当前时间</t>
+  </si>
+  <si>
+    <t>saleId=151&amp;_productId=241&amp;_appId=1904</t>
+  </si>
+  <si>
+    <t>{
+ "code": 200,
+ "data": {
+  "endTime": 1630400380000,
+  "startTime": 1627376380000,
+  "status": 1,
+  "type": 0,
+  "url": "https://aries.yuanfudao.biz/h5/solar-web-ai-course/purchase-bolt.html?saleId=152"
+ },
+ "msg": ""
+}</t>
+  </si>
+  <si>
+    <t>url不为空</t>
+  </si>
+  <si>
+    <t>saleId=151&amp;_productId=241&amp;_appId=1905</t>
+  </si>
+  <si>
+    <t>{
+ "code": 200,
+ "data": {
+  "endTime": 1630400380000,
+  "startTime": 1627376380000,
+  "status": 1,
+  "type": 0,
+  "url": "https://aries.yuanfudao.biz/h5/solar-web-ai-course/purchase-bolt.html?saleId=153"
+ },
+ "msg": ""
+}</t>
   </si>
 </sst>
 </file>
@@ -99,12 +200,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,22 +214,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +243,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -150,17 +289,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,84 +348,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,31 +381,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,55 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,103 +565,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,20 +614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +644,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -523,21 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -548,168 +687,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1041,44 +1180,44 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1086,37 +1225,37 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1124,91 +1263,91 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
@@ -1248,6 +1387,176 @@
     <row r="16" spans="1:1">
       <c r="A16">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9.71428571428571" style="1"/>
+    <col min="3" max="3" width="15.9196428571429" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.71428571428571" style="1"/>
+    <col min="7" max="7" width="22.3214285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="63.3571428571429" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" ht="88" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="88" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="212" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="212" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" ht="212" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
